--- a/test5.xlsx
+++ b/test5.xlsx
@@ -26,12 +26,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,7 +483,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>67</v>
       </c>
     </row>
@@ -512,7 +518,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>37</v>
       </c>
     </row>
@@ -527,7 +533,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>38</v>
       </c>
     </row>
@@ -547,7 +553,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>56</v>
       </c>
     </row>
@@ -562,12 +568,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>90</v>
       </c>
     </row>
@@ -602,7 +608,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -617,22 +623,22 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -647,17 +653,17 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -667,22 +673,22 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
         <v>101</v>
       </c>
     </row>
@@ -692,7 +698,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
         <v>56</v>
       </c>
     </row>
@@ -702,17 +708,17 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
         <v>27</v>
       </c>
     </row>
@@ -737,7 +743,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
         <v>64</v>
       </c>
     </row>
@@ -772,27 +778,27 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="1" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -812,17 +818,17 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="1" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="1" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="1" t="n">
         <v>67</v>
       </c>
     </row>
@@ -832,7 +838,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="1" t="n">
         <v>73</v>
       </c>
     </row>
@@ -847,12 +853,12 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="1" t="n">
         <v>38</v>
       </c>
     </row>
@@ -862,17 +868,17 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="1" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="1" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -882,12 +888,12 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="1" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="1" t="n">
         <v>64</v>
       </c>
     </row>
@@ -897,17 +903,17 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="1" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="1" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="1" t="n">
         <v>98</v>
       </c>
     </row>
